--- a/API.xlsx
+++ b/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\individual-project\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39319B60-15A1-4727-A64D-0334865E6C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F47C47-71E6-4917-9F83-29C56BB1F9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7E118CCC-5F41-42DF-8BFA-679CA1BAFFA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E118CCC-5F41-42DF-8BFA-679CA1BAFFA0}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>path</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>removeFromCart</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>code, name, description,categoryId</t>
+  </si>
+  <si>
+    <t>/?filter</t>
+  </si>
+  <si>
+    <t>getFilteredProduct</t>
+  </si>
+  <si>
+    <t>query</t>
   </si>
 </sst>
 </file>
@@ -453,19 +468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE15CE4-0677-4644-A69F-5155CCAF9486}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -473,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -486,8 +502,14 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -495,37 +517,54 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -538,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A611A6-C888-41EA-922D-3FF4A2070CCC}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/API.xlsx
+++ b/API.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\individual-project\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F47C47-71E6-4917-9F83-29C56BB1F9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909AC0FC-7FD2-47B9-8F5D-66B522F36C21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E118CCC-5F41-42DF-8BFA-679CA1BAFFA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7E118CCC-5F41-42DF-8BFA-679CA1BAFFA0}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
     <sheet name="cart" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="user" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>path</t>
   </si>
@@ -113,6 +115,45 @@
   </si>
   <si>
     <t>query</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>authen</t>
+  </si>
+  <si>
+    <t>/me</t>
+  </si>
+  <si>
+    <t>updateUser</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>getAllOrder</t>
+  </si>
+  <si>
+    <t>getOrderById</t>
+  </si>
+  <si>
+    <t>createOrder</t>
+  </si>
+  <si>
+    <t>/cancel</t>
+  </si>
+  <si>
+    <t>cancelOrder</t>
   </si>
 </sst>
 </file>
@@ -470,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE15CE4-0677-4644-A69F-5155CCAF9486}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +619,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,4 +709,175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFECB88-4196-4F32-B440-3B9E91EF9990}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19402B6E-14DE-4A33-A161-0890DFB17FA0}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>